--- a/Projects/SANOFIIN/Data/Template.xlsx
+++ b/Projects/SANOFIIN/Data/Template.xlsx
@@ -90,22 +90,22 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
             <u val="single"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -178,22 +178,22 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
             <u val="single"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -237,7 +237,6 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -248,12 +247,46 @@
         </r>
         <r>
           <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>identical</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t> to SKUs Brand in Trax DB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
           </rPr>
+          <t>To be </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t>identical</t>
         </r>
         <r>
@@ -264,41 +297,6 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> to SKUs Brand in Trax DB</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>To be </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>identical</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
           <t> to SKUs Category in Trax DB</t>
         </r>
       </text>
@@ -319,16 +317,6 @@
     </comment>
     <comment ref="F1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
         <r>
           <rPr>
             <u val="single"/>
@@ -337,6 +325,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -408,11 +406,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Pavel Chernykh:
 </t>
@@ -433,11 +431,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Pavel Chernykh:
 </t>
@@ -458,22 +456,22 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
             <u val="single"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -559,22 +557,22 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
             <u val="single"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -609,7 +607,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>KPI Name</t>
   </si>
@@ -720,9 +718,6 @@
   </si>
   <si>
     <t>SKUs</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>CHC - Branding (Poster and Glass Door ) </t>
@@ -754,8 +749,7 @@
     <t>Window Display</t>
   </si>
   <si>
-    <t>SAINFEX18050480
-</t>
+    <t>SAINFEX18050480</t>
   </si>
   <si>
     <t>Allegra</t>
@@ -870,14 +864,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -913,6 +899,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -933,7 +927,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,12 +984,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFC5E0B4"/>
       </patternFill>
@@ -1067,7 +1055,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1164,103 +1152,95 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1268,33 +1248,29 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1383,7 +1359,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1409,18 +1385,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1684,12 +1660,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1768,33 +1744,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="1:18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="24" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="24" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="24" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="25" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+    <row r="1" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
@@ -1815,144 +1791,122 @@
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="23"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="27"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="27"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="F18" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1977,19 +1931,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="35" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="21.165991902834"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="36" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="33" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2015,95 +1969,95 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2125,17 +2079,17 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="42" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2145,115 +2099,121 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="E3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="32" t="n">
+      <c r="C4" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="29" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="47" t="s">
+    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="32" t="n">
+      <c r="C5" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="29" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="32" t="n">
-        <v>1</v>
-      </c>
-    </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="50"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="48"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A5" type="list">
+      <formula1>"Product Minimum Facings Primary,Product Minimum Facing Secondary "</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2273,44 +2233,44 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -2318,82 +2278,82 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="C3" s="55" t="n">
+        <v>8901083012114</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="58" t="n">
-        <v>8901083012114</v>
-      </c>
-      <c r="D3" s="59" t="s">
+      <c r="C4" s="55" t="n">
+        <v>8901083012121</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="F4" s="58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="61" t="n">
+      <c r="B5" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="55" t="n">
+        <v>8901083000838</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="58" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="58" t="n">
-        <v>8901083012121</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="62" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="63" t="s">
+      <c r="B6" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="58" t="n">
-        <v>8901083000838</v>
-      </c>
-      <c r="D5" s="63" t="s">
+      <c r="C6" s="55" t="n">
+        <v>8901083000845</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="58" t="n">
-        <v>8901083000845</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="61" t="n">
+      <c r="F6" s="58" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Projects/SANOFIIN/Data/Template.xlsx
+++ b/Projects/SANOFIIN/Data/Template.xlsx
@@ -90,12 +90,11 @@
       <text>
         <r>
           <rPr>
-            <u val="single"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Store Type</t>
         </r>
@@ -107,17 +106,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
+          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -178,12 +167,11 @@
       <text>
         <r>
           <rPr>
-            <u val="single"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Store Type</t>
         </r>
@@ -195,17 +183,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
+          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -237,11 +215,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>To be </t>
         </r>
@@ -253,17 +231,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>identical</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> to SKUs Brand in Trax DB</t>
+          <t>identical to SKUs Brand in Trax DB</t>
         </r>
       </text>
     </comment>
@@ -271,11 +239,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>To be </t>
         </r>
@@ -287,17 +255,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>identical</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> to SKUs Category in Trax DB</t>
+          <t>identical to SKUs Category in Trax DB</t>
         </r>
       </text>
     </comment>
@@ -319,12 +277,11 @@
       <text>
         <r>
           <rPr>
-            <u val="single"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Store Type</t>
         </r>
@@ -336,17 +293,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
+          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -413,17 +360,7 @@
             <charset val="1"/>
           </rPr>
           <t>Pavel Chernykh:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Brand of Required POSM in accordance with POSM template</t>
+Brand of Required POSM in accordance with POSM template</t>
         </r>
       </text>
     </comment>
@@ -438,17 +375,7 @@
             <charset val="1"/>
           </rPr>
           <t>Pavel Chernykh:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Category of Required POSM in accordance with POSM template</t>
+Category of Required POSM in accordance with POSM template</t>
         </r>
       </text>
     </comment>
@@ -456,12 +383,11 @@
       <text>
         <r>
           <rPr>
-            <u val="single"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Store Type</t>
         </r>
@@ -473,17 +399,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
+          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -557,12 +473,11 @@
       <text>
         <r>
           <rPr>
-            <u val="single"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Store Type</t>
         </r>
@@ -574,17 +489,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Field is case sensitive</t>
+          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -607,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t>KPI Name</t>
   </si>
@@ -756,9 +661,6 @@
   </si>
   <si>
     <t>Allergy</t>
-  </si>
-  <si>
-    <t>Product Minimum Facing Secondary </t>
   </si>
   <si>
     <t>Allegra 120 mg</t>
@@ -783,7 +685,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -857,13 +759,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -898,7 +793,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -1152,19 +1046,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1172,15 +1066,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1220,7 +1114,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1228,19 +1122,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1248,43 +1142,43 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1292,15 +1186,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1385,18 +1279,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1660,12 +1554,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1752,11 +1646,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
@@ -1931,10 +1825,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="33" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2084,12 +1978,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2233,17 +2127,17 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2277,12 +2171,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>50</v>
       </c>
       <c r="C3" s="55" t="n">
         <v>8901083012114</v>
@@ -2297,12 +2191,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="55" t="n">
         <v>8901083012121</v>
@@ -2317,12 +2211,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="43" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="55" t="n">
         <v>8901083000838</v>
@@ -2337,12 +2231,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="43" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="55" t="n">
         <v>8901083000845</v>

--- a/Projects/SANOFIIN/Data/Template.xlsx
+++ b/Projects/SANOFIIN/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of Products in MSL</t>
+          <t xml:space="preserve">Name of Products in MSL</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">EAN of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -68,7 +68,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">Brand of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -82,7 +82,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Category of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">Category of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -96,17 +96,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
+          <t xml:space="preserve">Store Type must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -120,7 +110,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Indicate 1 for MSL / indicate 0 if not in MSL
+          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
 </t>
         </r>
       </text>
@@ -145,7 +135,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand and Category required for shelf location KPI</t>
+          <t xml:space="preserve">Brand and Category required for shelf location KPI</t>
         </r>
       </text>
     </comment>
@@ -159,7 +149,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand and Category required for shelf location KPI</t>
+          <t xml:space="preserve">Brand and Category required for shelf location KPI</t>
         </r>
       </text>
     </comment>
@@ -173,17 +163,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
+          <t xml:space="preserve">Store Type must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -197,7 +177,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Minimum number of facings for each SKU per Segement (Indicate 0 if not in MSL)</t>
+          <t xml:space="preserve">Minimum number of facings for each SKU per Segement (Indicate 0 if not in MSL)</t>
         </r>
       </text>
     </comment>
@@ -221,17 +201,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>To be </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>identical to SKUs Brand in Trax DB</t>
+          <t xml:space="preserve">To be identical to SKUs Brand in Trax DB</t>
         </r>
       </text>
     </comment>
@@ -245,17 +215,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>To be </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>identical to SKUs Category in Trax DB</t>
+          <t xml:space="preserve">To be identical to SKUs Category in Trax DB</t>
         </r>
       </text>
     </comment>
@@ -269,7 +229,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>For multi SKU/brand/category in a single blocked together rule, please use a "," comma to seperate them</t>
+          <t xml:space="preserve">For multi SKU/brand/category in a single blocked together rule, please use a "," comma to seperate them</t>
         </r>
       </text>
     </comment>
@@ -283,17 +243,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
+          <t xml:space="preserve">Store Type must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -307,7 +257,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Indicate 1 for segment that KPI will be applied / indicare 0 for non selected segment</t>
+          <t xml:space="preserve">Indicate 1 for segment that KPI will be applied / indicare 0 for non selected segment</t>
         </r>
       </text>
     </comment>
@@ -331,7 +281,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of POSM</t>
+          <t xml:space="preserve">Name of POSM</t>
         </r>
       </text>
     </comment>
@@ -345,7 +295,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of Required POSM in accordance with POSM template</t>
+          <t xml:space="preserve">EAN of Required POSM in accordance with POSM template</t>
         </r>
       </text>
     </comment>
@@ -359,7 +309,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Pavel Chernykh:
+          <t xml:space="preserve">Pavel Chernykh:
 Brand of Required POSM in accordance with POSM template</t>
         </r>
       </text>
@@ -374,7 +324,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Pavel Chernykh:
+          <t xml:space="preserve">Pavel Chernykh:
 Category of Required POSM in accordance with POSM template</t>
         </r>
       </text>
@@ -389,17 +339,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
+          <t xml:space="preserve">Store Type must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -423,7 +363,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of Products in Min facings</t>
+          <t xml:space="preserve">Name of Products in Min facings</t>
         </r>
       </text>
     </comment>
@@ -437,7 +377,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">EAN of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -451,7 +391,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">Brand of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -465,7 +405,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Category of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">Category of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -479,17 +419,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
+          <t xml:space="preserve">Store Type must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -503,7 +433,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Minimum number of facings for each SKU per Segment (Indicate 0 if not in Min facings)</t>
+          <t xml:space="preserve">Minimum number of facings for each SKU per Segment (Indicate 0 if not in Min facings)</t>
         </r>
       </text>
     </comment>
@@ -512,167 +442,167 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
-  <si>
-    <t>KPI Name</t>
-  </si>
-  <si>
-    <t>KPI Group</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>Tested Group</t>
-  </si>
-  <si>
-    <t>Template Group</t>
-  </si>
-  <si>
-    <t>Sheet</t>
-  </si>
-  <si>
-    <t>SCORE</t>
-  </si>
-  <si>
-    <t>POSM Availability Primary</t>
-  </si>
-  <si>
-    <t>Primary Shelf</t>
-  </si>
-  <si>
-    <t>Product Availability Per SKU</t>
-  </si>
-  <si>
-    <t>Primary&amp;Secondary_POSM</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>Product Minimum Facings Primary</t>
-  </si>
-  <si>
-    <t>Primary&amp;Secondary_Facings</t>
-  </si>
-  <si>
-    <t>Blocked Together</t>
-  </si>
-  <si>
-    <t>Blocked Together Per Brand</t>
-  </si>
-  <si>
-    <t>Primary_Brand_Blocking</t>
-  </si>
-  <si>
-    <t>Shelf Location Compliance</t>
-  </si>
-  <si>
-    <t>Shelf Level Per Brand</t>
-  </si>
-  <si>
-    <t>Primary Shelf_Location</t>
-  </si>
-  <si>
-    <t>POSM Availability Secondary</t>
-  </si>
-  <si>
-    <t>Secondary Shelf</t>
-  </si>
-  <si>
-    <t>Product Minimum Facings Secondary</t>
-  </si>
-  <si>
-    <t>MSL Compliance</t>
-  </si>
-  <si>
-    <t>MSL</t>
-  </si>
-  <si>
-    <t>Perfect Store</t>
-  </si>
-  <si>
-    <t>Primary Shelf Compliance</t>
-  </si>
-  <si>
-    <t>Secondary Shelf Compliance</t>
-  </si>
-  <si>
-    <t>Perfect Store Compliance</t>
-  </si>
-  <si>
-    <t>Sum of KPIs in Group</t>
-  </si>
-  <si>
-    <t>Store Type</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Product EAN Code</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Traditional Store</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>CHC - Branding (Poster and Glass Door ) </t>
-  </si>
-  <si>
-    <t>SAINCHC18050471
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="53">
+  <si>
+    <t xml:space="preserve">KPI Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Availability Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Availability Per SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary&amp;Secondary_POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Minimum Facings Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary&amp;Secondary_Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together Per Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary_Brand_Blocking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Location Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Level Per Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf_Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Availability Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Minimum Facings Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Store Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of KPIs in Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product EAN Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHC - Branding (Poster and Glass Door ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAINCHC18050471
 </t>
   </si>
   <si>
-    <t>Multibrand</t>
-  </si>
-  <si>
-    <t>Multicategory</t>
-  </si>
-  <si>
-    <t>Counter Top</t>
-  </si>
-  <si>
-    <t>SAINCHC17060656
+    <t xml:space="preserve">Multibrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multicategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counter Top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAINCHC17060656
 </t>
   </si>
   <si>
-    <t>Combiflam ICY HOT</t>
-  </si>
-  <si>
-    <t>Pain</t>
-  </si>
-  <si>
-    <t>Window Display</t>
-  </si>
-  <si>
-    <t>SAINFEX18050480</t>
-  </si>
-  <si>
-    <t>Allegra</t>
-  </si>
-  <si>
-    <t>Allergy</t>
-  </si>
-  <si>
-    <t>Allegra 120 mg</t>
-  </si>
-  <si>
-    <t>Allegra 180 mg</t>
-  </si>
-  <si>
-    <t>Combiflam ICY HOT 15 gms/30 gms Gel</t>
-  </si>
-  <si>
-    <t>Combiflam ICY HOT 35 gms/55 gms Gel</t>
+    <t xml:space="preserve">Combiflam ICY HOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAINFEX18050480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allegra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allegra 120 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allegra 180 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combiflam ICY HOT 15 gms/30 gms Gel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combiflam ICY HOT 35 gms/55 gms Gel</t>
   </si>
 </sst>
 </file>
@@ -680,12 +610,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -759,14 +689,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -789,13 +711,6 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -949,7 +864,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1046,19 +961,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1066,15 +981,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1090,22 +1005,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1114,7 +1013,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1122,19 +1021,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1142,43 +1041,43 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1186,15 +1085,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1278,19 +1177,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1554,12 +1453,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1646,11 +1545,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
@@ -1817,18 +1716,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="33" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1861,97 +1760,6 @@
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1978,12 +1786,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1993,44 +1801,44 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="41" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="29" t="n">
@@ -2038,19 +1846,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="41" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="29" t="n">
@@ -2058,19 +1866,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="41" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="29" t="n">
@@ -2078,28 +1886,28 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="48"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="44"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2132,12 +1940,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2152,19 +1960,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="37" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -2172,82 +1980,82 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="55" t="n">
+      <c r="C3" s="51" t="n">
         <v>8901083012114</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="58" t="n">
+      <c r="F3" s="54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="55" t="n">
+      <c r="C4" s="51" t="n">
         <v>8901083012121</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="58" t="n">
+      <c r="F4" s="54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="55" t="n">
+      <c r="C5" s="51" t="n">
         <v>8901083000838</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="58" t="n">
+      <c r="F5" s="54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="55" t="n">
+      <c r="C6" s="51" t="n">
         <v>8901083000845</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="58" t="n">
+      <c r="F6" s="54" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Projects/SANOFIIN/Data/Template.xlsx
+++ b/Projects/SANOFIIN/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -555,51 +555,13 @@
     <t xml:space="preserve">SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">CHC - Branding (Poster and Glass Door ) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAINCHC18050471
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multibrand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multicategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counter Top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAINCHC17060656
-</t>
+    <t xml:space="preserve">Combiflam ICY HOT 15 gms/30 gms Gel</t>
   </si>
   <si>
     <t xml:space="preserve">Combiflam ICY HOT</t>
   </si>
   <si>
     <t xml:space="preserve">Pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Window Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAINFEX18050480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allegra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allergy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allegra 120 mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allegra 180 mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combiflam ICY HOT 15 gms/30 gms Gel</t>
   </si>
   <si>
     <t xml:space="preserve">Combiflam ICY HOT 35 gms/55 gms Gel</t>
@@ -864,7 +826,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1019,18 +981,6 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1065,35 +1015,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1183,13 +1121,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1453,12 +1391,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1545,11 +1483,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
@@ -1718,16 +1656,16 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="33" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1778,20 +1716,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1825,97 +1763,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="44"/>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="41"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A5" type="list">
-      <formula1>"Product Minimum Facings Primary,Product Minimum Facing Secondary "</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1932,20 +1804,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1980,88 +1852,48 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="51" t="n">
-        <v>8901083012114</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="54" t="n">
+      <c r="B3" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="49" t="n">
+        <v>8901083000838</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="51" t="n">
-        <v>8901083012121</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="51" t="n">
-        <v>8901083000838</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="51" t="n">
+      <c r="B4" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="49" t="n">
         <v>8901083000845</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="54" t="n">
+      <c r="D4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="51" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A6" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A4" type="list">
       <formula1>"Product Minimum Facings Primary,Product Minimum Facing Secondary "</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Projects/SANOFIIN/Data/Template.xlsx
+++ b/Projects/SANOFIIN/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of Products in MSL</t>
+          <t xml:space="preserve">Name of Products in MSL</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">EAN of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -68,7 +68,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">Brand of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -82,7 +82,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Category of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">Category of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -96,17 +96,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
+          <t xml:space="preserve">Store Type must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -120,7 +110,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Indicate 1 for MSL / indicate 0 if not in MSL
+          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
 </t>
         </r>
       </text>
@@ -145,7 +135,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand and Category required for shelf location KPI</t>
+          <t xml:space="preserve">Brand and Category required for shelf location KPI</t>
         </r>
       </text>
     </comment>
@@ -159,7 +149,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand and Category required for shelf location KPI</t>
+          <t xml:space="preserve">Brand and Category required for shelf location KPI</t>
         </r>
       </text>
     </comment>
@@ -173,17 +163,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
+          <t xml:space="preserve">Store Type must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -197,7 +177,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Minimum number of facings for each SKU per Segement (Indicate 0 if not in MSL)</t>
+          <t xml:space="preserve">Minimum number of facings for each SKU per Segement (Indicate 0 if not in MSL)</t>
         </r>
       </text>
     </comment>
@@ -221,17 +201,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>To be </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>identical to SKUs Brand in Trax DB</t>
+          <t xml:space="preserve">To be identical to SKUs Brand in Trax DB</t>
         </r>
       </text>
     </comment>
@@ -245,17 +215,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>To be </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>identical to SKUs Category in Trax DB</t>
+          <t xml:space="preserve">To be identical to SKUs Category in Trax DB</t>
         </r>
       </text>
     </comment>
@@ -269,7 +229,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>For multi SKU/brand/category in a single blocked together rule, please use a "," comma to seperate them</t>
+          <t xml:space="preserve">For multi SKU/brand/category in a single blocked together rule, please use a "," comma to seperate them</t>
         </r>
       </text>
     </comment>
@@ -283,17 +243,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
+          <t xml:space="preserve">Store Type must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -307,7 +257,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Indicate 1 for segment that KPI will be applied / indicare 0 for non selected segment</t>
+          <t xml:space="preserve">Indicate 1 for segment that KPI will be applied / indicare 0 for non selected segment</t>
         </r>
       </text>
     </comment>
@@ -331,7 +281,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of POSM</t>
+          <t xml:space="preserve">Name of POSM</t>
         </r>
       </text>
     </comment>
@@ -345,7 +295,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of Required POSM in accordance with POSM template</t>
+          <t xml:space="preserve">EAN of Required POSM in accordance with POSM template</t>
         </r>
       </text>
     </comment>
@@ -359,7 +309,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Pavel Chernykh:
+          <t xml:space="preserve">Pavel Chernykh:
 Brand of Required POSM in accordance with POSM template</t>
         </r>
       </text>
@@ -374,7 +324,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Pavel Chernykh:
+          <t xml:space="preserve">Pavel Chernykh:
 Category of Required POSM in accordance with POSM template</t>
         </r>
       </text>
@@ -389,17 +339,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
+          <t xml:space="preserve">Store Type must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -423,7 +363,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of Products in Min facings</t>
+          <t xml:space="preserve">Name of Products in Min facings</t>
         </r>
       </text>
     </comment>
@@ -437,7 +377,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">EAN of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -451,7 +391,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">Brand of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -465,7 +405,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Category of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">Category of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -479,17 +419,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t> must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
+          <t xml:space="preserve">Store Type must be identical with Store Type attribute in Store Template. Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -503,7 +433,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Minimum number of facings for each SKU per Segment (Indicate 0 if not in Min facings)</t>
+          <t xml:space="preserve">Minimum number of facings for each SKU per Segment (Indicate 0 if not in Min facings)</t>
         </r>
       </text>
     </comment>
@@ -512,167 +442,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
-  <si>
-    <t>KPI Name</t>
-  </si>
-  <si>
-    <t>KPI Group</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>Tested Group</t>
-  </si>
-  <si>
-    <t>Template Group</t>
-  </si>
-  <si>
-    <t>Sheet</t>
-  </si>
-  <si>
-    <t>SCORE</t>
-  </si>
-  <si>
-    <t>POSM Availability Primary</t>
-  </si>
-  <si>
-    <t>Primary Shelf</t>
-  </si>
-  <si>
-    <t>Product Availability Per SKU</t>
-  </si>
-  <si>
-    <t>Primary&amp;Secondary_POSM</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>Product Minimum Facings Primary</t>
-  </si>
-  <si>
-    <t>Primary&amp;Secondary_Facings</t>
-  </si>
-  <si>
-    <t>Blocked Together</t>
-  </si>
-  <si>
-    <t>Blocked Together Per Brand</t>
-  </si>
-  <si>
-    <t>Primary_Brand_Blocking</t>
-  </si>
-  <si>
-    <t>Shelf Location Compliance</t>
-  </si>
-  <si>
-    <t>Shelf Level Per Brand</t>
-  </si>
-  <si>
-    <t>Primary Shelf_Location</t>
-  </si>
-  <si>
-    <t>POSM Availability Secondary</t>
-  </si>
-  <si>
-    <t>Secondary Shelf</t>
-  </si>
-  <si>
-    <t>Product Minimum Facings Secondary</t>
-  </si>
-  <si>
-    <t>MSL Compliance</t>
-  </si>
-  <si>
-    <t>MSL</t>
-  </si>
-  <si>
-    <t>Perfect Store</t>
-  </si>
-  <si>
-    <t>Primary Shelf Compliance</t>
-  </si>
-  <si>
-    <t>Secondary Shelf Compliance</t>
-  </si>
-  <si>
-    <t>Perfect Store Compliance</t>
-  </si>
-  <si>
-    <t>Sum of KPIs in Group</t>
-  </si>
-  <si>
-    <t>Store Type</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Product EAN Code</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Traditional Store</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>CHC - Branding (Poster and Glass Door ) </t>
-  </si>
-  <si>
-    <t>SAINCHC18050471
-</t>
-  </si>
-  <si>
-    <t>Multibrand</t>
-  </si>
-  <si>
-    <t>Multicategory</t>
-  </si>
-  <si>
-    <t>Counter Top</t>
-  </si>
-  <si>
-    <t>SAINCHC17060656
-</t>
-  </si>
-  <si>
-    <t>Combiflam ICY HOT</t>
-  </si>
-  <si>
-    <t>Pain</t>
-  </si>
-  <si>
-    <t>Window Display</t>
-  </si>
-  <si>
-    <t>SAINFEX18050480</t>
-  </si>
-  <si>
-    <t>Allegra</t>
-  </si>
-  <si>
-    <t>Allergy</t>
-  </si>
-  <si>
-    <t>Allegra 120 mg</t>
-  </si>
-  <si>
-    <t>Allegra 180 mg</t>
-  </si>
-  <si>
-    <t>Combiflam ICY HOT 15 gms/30 gms Gel</t>
-  </si>
-  <si>
-    <t>Combiflam ICY HOT 35 gms/55 gms Gel</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
+  <si>
+    <t xml:space="preserve">KPI Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Availability Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Availability Per SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary&amp;Secondary_POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Minimum Facings Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary&amp;Secondary_Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together Per Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary_Brand_Blocking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Location Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Level Per Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf_Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Availability Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Minimum Facings Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Store Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of KPIs in Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product EAN Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combiflam ICY HOT 15 gms/30 gms Gel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combiflam ICY HOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combiflam ICY HOT 35 gms/55 gms Gel</t>
   </si>
 </sst>
 </file>
@@ -680,12 +572,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -759,14 +651,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -789,13 +673,6 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -949,7 +826,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1046,19 +923,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1066,15 +943,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1090,22 +967,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1114,7 +975,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1122,19 +983,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1142,59 +991,47 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1278,19 +1115,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1554,12 +1391,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1646,11 +1483,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
@@ -1817,18 +1654,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="33" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1861,97 +1698,6 @@
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1970,20 +1716,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1993,121 +1739,55 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="48"/>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="41"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A5" type="list">
-      <formula1>"Product Minimum Facings Primary,Product Minimum Facing Secondary "</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2124,20 +1804,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2152,19 +1832,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="37" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -2172,88 +1852,48 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="55" t="n">
-        <v>8901083012114</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="58" t="n">
+      <c r="B3" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="49" t="n">
+        <v>8901083000838</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="55" t="n">
-        <v>8901083012121</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="55" t="n">
-        <v>8901083000838</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="55" t="n">
+      <c r="B4" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="49" t="n">
         <v>8901083000845</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="58" t="n">
+      <c r="D4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="51" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A6" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A4" type="list">
       <formula1>"Product Minimum Facings Primary,Product Minimum Facing Secondary "</formula1>
       <formula2>0</formula2>
     </dataValidation>
